--- a/output/table_estimates_incentives_compas.xlsx
+++ b/output/table_estimates_incentives_compas.xlsx
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.005338544334012751</v>
+        <v>0.006435921511204683</v>
       </c>
       <c r="C2">
-        <v>0.02595926146926583</v>
+        <v>0.02567341999445348</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.1830256331850461</v>
+        <v>-0.1787917213122347</v>
       </c>
       <c r="C3">
-        <v>0.02346146742731813</v>
+        <v>0.02327220414849176</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -493,10 +493,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.02284099641246714</v>
+        <v>-0.03469307547134877</v>
       </c>
       <c r="C4">
-        <v>0.01870906220309996</v>
+        <v>0.01852896202801947</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -507,10 +507,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>-0.005612749261267173</v>
+        <v>-0.006125585201638784</v>
       </c>
       <c r="C5">
-        <v>0.01359493937523604</v>
+        <v>0.01345191908052146</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.02402326598492917</v>
+        <v>-0.02460879736740747</v>
       </c>
       <c r="C6">
-        <v>0.01329963228177979</v>
+        <v>0.01318990322370323</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -535,10 +535,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.09537778456085468</v>
+        <v>0.09360468892014968</v>
       </c>
       <c r="C7">
-        <v>0.01836108260673205</v>
+        <v>0.01814935129513335</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.07145478717360203</v>
+        <v>-0.08954027901291602</v>
       </c>
       <c r="C8">
-        <v>0.02706741384287631</v>
+        <v>0.02681497548476173</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -563,10 +563,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.006090354276300028</v>
+        <v>-0.03124183103120629</v>
       </c>
       <c r="C9">
-        <v>0.02471181875462897</v>
+        <v>0.02454472883987911</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -577,10 +577,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0157816924618269</v>
+        <v>0.04776253748343152</v>
       </c>
       <c r="C10">
-        <v>0.01311111348505071</v>
+        <v>0.01300390157282856</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -591,10 +591,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003165061351497217</v>
+        <v>0.001556589296335407</v>
       </c>
       <c r="C11">
-        <v>0.00222215802334929</v>
+        <v>0.002203755631870174</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -605,10 +605,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0809743193367673</v>
+        <v>-0.08084667350989989</v>
       </c>
       <c r="C12">
-        <v>0.02247672562002763</v>
+        <v>0.02241783971254123</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>2.983305436377161</v>
+        <v>2.961801512221031</v>
       </c>
       <c r="C13">
-        <v>0.02940041000042514</v>
+        <v>0.0294472127871744</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -633,10 +633,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1.698357283112875</v>
+        <v>1.764139249938834</v>
       </c>
       <c r="C14">
-        <v>0.1358418708442515</v>
+        <v>0.1353165864967069</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-6.796850836693995</v>
+        <v>-7.124168124464224</v>
       </c>
       <c r="C17">
-        <v>0.01981004033757422</v>
+        <v>0.01994149628921663</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -683,10 +683,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-4.844359461614857</v>
+        <v>-5.126254933207102</v>
       </c>
       <c r="C18">
-        <v>0.02308418947152337</v>
+        <v>0.0229717015632161</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -697,10 +697,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>-2.396739449096294</v>
+        <v>-2.673503803900871</v>
       </c>
       <c r="C19">
-        <v>0.1384800551841666</v>
+        <v>0.1375264971319607</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -722,10 +722,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.4951720608487893</v>
+        <v>0.5032871301141264</v>
       </c>
       <c r="C21">
-        <v>0.05287581154057132</v>
+        <v>0.05292099601223157</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -736,10 +736,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.3696884230444238</v>
+        <v>-0.3832943916293705</v>
       </c>
       <c r="C22">
-        <v>0.05604879977873933</v>
+        <v>0.0560465985211538</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
